--- a/bit_calc.xlsx
+++ b/bit_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>режим 1</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>режим 3</t>
-  </si>
-  <si>
-    <t>режим 4</t>
   </si>
   <si>
     <t>Скорость 1 / Яркость1</t>
@@ -63,16 +60,37 @@
     <t>Скорость 4 / Яркость2</t>
   </si>
   <si>
-    <t>Скорость 2 / Яркость3</t>
+    <t>Яркость 1 / Скорость1</t>
   </si>
   <si>
-    <t>Скорость 1 / Яркость3</t>
+    <t>Яркость 3 / Скорость1</t>
+  </si>
+  <si>
+    <t>Яркость 1 / Скорость2</t>
+  </si>
+  <si>
+    <t>Яркость 2 / Скорость2</t>
+  </si>
+  <si>
+    <t>Яркость 3 / Скорость2</t>
+  </si>
+  <si>
+    <t>Яркость 1 / Скорость3</t>
+  </si>
+  <si>
+    <t>Яркость 2 / Скорость3</t>
+  </si>
+  <si>
+    <t>Яркость 3 / Скорость3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -119,6 +137,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1278,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,192 +1310,290 @@
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="O1" t="str">
+        <f>DEC2BIN(L1,2)</f>
+        <v>00</v>
+      </c>
+      <c r="P1" t="str">
+        <f>DEC2BIN(M1,2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O8" si="0">DEC2BIN(L2,2)</f>
+        <v>10</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P8" si="1">DEC2BIN(M2,2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8">
         <v>1</v>
       </c>
@@ -1486,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1496,19 +1614,34 @@
       </c>
       <c r="J8">
         <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,15 +1667,15 @@
         <v>0</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>13107</v>
       </c>
       <c r="H1" t="str">
         <f>DEC2HEX(G1,4)</f>
-        <v>0000</v>
-      </c>
-      <c r="I1">
+        <v>3333</v>
+      </c>
+      <c r="I1" s="6">
         <f>(2^16-G1)/2^16</f>
-        <v>1</v>
+        <v>0.8000030517578125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1560,7 +1693,7 @@
       <c r="D2" s="3"/>
       <c r="E2">
         <f>C10*0.2</f>
-        <v>6.8235294117647061E-2</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>32768</v>
@@ -1569,7 +1702,7 @@
         <f t="shared" ref="H2:H4" si="2">DEC2HEX(G2,4)</f>
         <v>8000</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <f t="shared" ref="I2:I4" si="3">(2^16-G2)/2^16</f>
         <v>0.5</v>
       </c>
@@ -1588,15 +1721,15 @@
       </c>
       <c r="D3" s="3"/>
       <c r="G3">
-        <v>49152</v>
+        <v>42598</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="2"/>
-        <v>C000</v>
-      </c>
-      <c r="I3">
+        <v>A666</v>
+      </c>
+      <c r="I3" s="6">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>0.350006103515625</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1621,7 +1754,7 @@
         <f t="shared" si="2"/>
         <v>E000</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
@@ -1689,6 +1822,15 @@
         <v>0.3411764705882353</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1703,121 +1845,179 @@
         <v>9.8039215686274508E-2</v>
       </c>
       <c r="D9" s="3"/>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>87</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>01010111</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.3411764705882353</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>61</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>00111101</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.23921568627450981</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>00010001</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>267</v>
-      </c>
-      <c r="B13" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>1.0470588235294118</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>255</v>
+      </c>
+      <c r="B13" t="str">
+        <f>DEC2BIN(A13,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="C13" s="1">
+        <f>A13/255</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>268</v>
-      </c>
-      <c r="B14" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>1.0509803921568628</v>
+        <v>179</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ref="B14:B21" si="4">DEC2BIN(A14,8)</f>
+        <v>10110011</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C21" si="5">A14/255</f>
+        <v>0.70196078431372544</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>269</v>
-      </c>
-      <c r="B15" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>1.0549019607843138</v>
+        <v>77</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="4"/>
+        <v>01001101</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.30196078431372547</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>270</v>
-      </c>
-      <c r="B16" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>1.0588235294117647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>271</v>
-      </c>
-      <c r="B17" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>1.0627450980392157</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>11111111</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>153.00000000000003</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10011001</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>00110011</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>255</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="4"/>
+        <v>11111111</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>128</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="4"/>
+        <v>10000000</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="4"/>
+        <v>00011001</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="5"/>
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="D7:D9"/>
